--- a/03_tabstat.xlsx
+++ b/03_tabstat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oCloud\Home-Cloud\Lehre\BIBB\StataBIBBtex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oCloud\Home-Cloud\Lehre\BIBB\StataBIBB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Option</t>
   </si>
@@ -120,7 +120,37 @@
     <t>Median</t>
   </si>
   <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
     <t>Summe der Ausprägungen</t>
+  </si>
+  <si>
+    <t>Wie groß ist der Abstand zwischen kleinstem und größtem Wert?</t>
+  </si>
+  <si>
+    <t>siehe [hier](#variance)</t>
+  </si>
+  <si>
+    <t>siehe [hier](#sk_kur)</t>
+  </si>
+  <si>
+    <t>Wie groß ist der Abstand zwischen der 25% und 75%-Grenze?</t>
+  </si>
+  <si>
+    <t>50% Grenze [mehr](#perc)</t>
+  </si>
+  <si>
+    <t>"Durchschnitt" [mehr](#mean)</t>
+  </si>
+  <si>
+    <t>zb. p5 $\rightarrow$ Grenze, unterhalb welcher X% der Beobachtungen liegen</t>
+  </si>
+  <si>
+    <t>Höchster Wert</t>
+  </si>
+  <si>
+    <t>Niedrigster Wert</t>
   </si>
 </sst>
 </file>
@@ -927,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C1:C17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,31 +968,40 @@
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -970,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -978,92 +1017,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
